--- a/03 - Program Outputs/Chart.xlsx
+++ b/03 - Program Outputs/Chart.xlsx
@@ -24,7 +24,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -37,8 +37,112 @@
         <bgColor/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0EBF5"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF892D2D"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF607023"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2D7C4D"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A4061"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5D2D69"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF892D2D"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF607023"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -50,8 +154,32 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="6" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="7" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="8" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="常规" xfId="0"/>
@@ -326,55 +454,208 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" max="702" min="2" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="5"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
+      <c r="A1" s="1" t="str">
         <v>M1</v>
       </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
     </row>
     <row r="2">
-      <c r="A2" t="str">
+      <c r="A2" s="1" t="str">
         <v>M2</v>
       </c>
-      <c r="B2">
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="str">
+        <v>M3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="str">
+        <v>M4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="str">
+        <v>M5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="str">
+        <v>M6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="str">
+        <v>M7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="str">
+        <v>M8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="str">
+        <v>M9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>15</v>
+      </c>
+      <c r="V10">
+        <v>20</v>
+      </c>
+      <c r="AA10">
+        <v>25</v>
+      </c>
+      <c r="AF10">
+        <v>30</v>
+      </c>
+      <c r="AK10">
+        <v>35</v>
+      </c>
+      <c r="AP10">
+        <v>40</v>
+      </c>
+      <c r="AU10">
+        <v>45</v>
+      </c>
+      <c r="AZ10">
+        <v>50</v>
+      </c>
+      <c r="BE10">
+        <v>55</v>
+      </c>
+      <c r="BJ10">
+        <v>60</v>
+      </c>
+      <c r="BO10">
+        <v>65</v>
+      </c>
+      <c r="BT10">
+        <v>70</v>
+      </c>
+      <c r="BY10">
+        <v>75</v>
+      </c>
+      <c r="CD10">
+        <v>80</v>
+      </c>
+      <c r="CI10">
+        <v>85</v>
+      </c>
+      <c r="CN10">
+        <v>90</v>
+      </c>
+      <c r="CS10">
+        <v>95</v>
+      </c>
+      <c r="CX10">
         <v>100</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>M3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>M4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>M5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>M6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>M7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>M8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>M9</v>
+      <c r="DC10">
+        <v>105</v>
+      </c>
+      <c r="DH10">
+        <v>110</v>
+      </c>
+      <c r="DM10">
+        <v>115</v>
+      </c>
+      <c r="DR10">
+        <v>120</v>
+      </c>
+      <c r="DW10">
+        <v>125</v>
+      </c>
+      <c r="EB10">
+        <v>130</v>
+      </c>
+      <c r="EG10">
+        <v>135</v>
+      </c>
+      <c r="EL10">
+        <v>140</v>
+      </c>
+      <c r="EQ10">
+        <v>145</v>
+      </c>
+      <c r="EV10">
+        <v>150</v>
+      </c>
+      <c r="FA10">
+        <v>155</v>
+      </c>
+      <c r="FF10">
+        <v>160</v>
+      </c>
+      <c r="FK10">
+        <v>165</v>
+      </c>
+      <c r="FP10">
+        <v>170</v>
+      </c>
+      <c r="FU10">
+        <v>175</v>
+      </c>
+      <c r="FZ10">
+        <v>180</v>
+      </c>
+      <c r="GE10">
+        <v>185</v>
+      </c>
+      <c r="GJ10">
+        <v>190</v>
+      </c>
+      <c r="GO10">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="str">
+        <v>Job 0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="str">
+        <v>Job 1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="str">
+        <v>Job 2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="str">
+        <v>Job 3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="str">
+        <v>Job 4</v>
       </c>
     </row>
   </sheetData>

--- a/03 - Program Outputs/Chart.xlsx
+++ b/03 - Program Outputs/Chart.xlsx
@@ -24,7 +24,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="45">
     <fill>
       <patternFill patternType="none">
         <fgColor/>
@@ -45,48 +45,503 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF892D2D"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF607023"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2D7C4D"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2A4061"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5D2D69"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF892D2D"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF607023"/>
+        <fgColor rgb="FFC62424"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCACA20"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF10D710"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0FC9C9"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2929D0"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA81EA8"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF10D710"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC62424"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCACA20"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0FC9C9"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2929D0"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA81EA8"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2929D0"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC62424"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0FC9C9"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2929D0"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA81EA8"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF10D710"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC62424"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCACA20"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF10D710"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2929D0"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCACA20"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0FC9C9"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF10D710"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA81EA8"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC62424"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC62424"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA81EA8"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0FC9C9"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2929D0"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCACA20"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF10D710"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0FC9C9"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2929D0"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC62424"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF10D710"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA81EA8"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCACA20"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0FC9C9"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA81EA8"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCACA20"/>
         <bgColor/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="44">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -154,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="44">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
@@ -178,6 +633,111 @@
       <alignment/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="9" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="10" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="12" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="13" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="14" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="15" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="16" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="17" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="18" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="19" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="20" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="21" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="22" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="23" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="24" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="25" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="26" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="27" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="28" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="29" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="29" fillId="30" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="30" fillId="31" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="31" fillId="32" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="32" fillId="33" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="33" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="34" fillId="35" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="35" fillId="36" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="36" fillId="37" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="37" fillId="38" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="38" fillId="39" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="39" fillId="40" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="40" fillId="41" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="41" fillId="42" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="42" fillId="43" fontId="0" numFmtId="0" xfId="0">
+      <alignment/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="43" fillId="44" fontId="0" numFmtId="0" xfId="0">
       <alignment/>
     </xf>
   </cellXfs>
@@ -459,203 +1019,453 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <v>M1</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
+        <v>M0</v>
+      </c>
+      <c r="B1" s="10">
+        <v>10</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="P1" s="23">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="28">
+        <v>3</v>
+      </c>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="30">
+        <v>10</v>
+      </c>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="30"/>
+      <c r="AA1" s="30"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="30"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="30"/>
+      <c r="AF1" s="38">
+        <v>9</v>
+      </c>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
+      <c r="AJ1" s="38"/>
+      <c r="AK1" s="38"/>
+      <c r="AL1" s="38"/>
+      <c r="AM1" s="38"/>
+      <c r="AN1" s="38"/>
+      <c r="AO1" s="41">
+        <v>5</v>
+      </c>
+      <c r="AP1" s="41"/>
+      <c r="AQ1" s="41"/>
+      <c r="AR1" s="41"/>
+      <c r="AS1" s="41"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="str">
-        <v>M2</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+        <v>M1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="15">
+        <v>6</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="M2" s="22">
+        <v>1</v>
+      </c>
+      <c r="N2" s="27">
+        <v>3</v>
+      </c>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="T2" s="31">
+        <v>5</v>
+      </c>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="33">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="str">
-        <v>M3</v>
+        <v>M2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>5</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="17">
+        <v>9</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="Q3" s="24">
+        <v>5</v>
+      </c>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="X3" s="34">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="37">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="42">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="str">
-        <v>M4</v>
-      </c>
+        <v>M3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>3</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="I4" s="19">
+        <v>4</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="21">
+        <v>4</v>
+      </c>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="25">
+        <v>3</v>
+      </c>
+      <c r="R4" s="25"/>
+      <c r="S4" s="25"/>
+      <c r="V4" s="29">
+        <v>7</v>
+      </c>
+      <c r="W4" s="29"/>
+      <c r="X4" s="29"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="str">
-        <v>M5</v>
-      </c>
+        <v>M4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>7</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="18">
+        <v>4</v>
+      </c>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="20">
+        <v>6</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="32">
+        <v>5</v>
+      </c>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="32"/>
+      <c r="W5" s="32"/>
+      <c r="Y5" s="35">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="35"/>
+      <c r="AA5" s="35"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="40">
+        <v>10</v>
+      </c>
+      <c r="AH5" s="40"/>
+      <c r="AI5" s="40"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="40"/>
+      <c r="AN5" s="40"/>
+      <c r="AO5" s="40"/>
+      <c r="AP5" s="40"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="str">
-        <v>M6</v>
-      </c>
+        <v>M5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="G6" s="16">
+        <v>9</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="26">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="36">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AF6" s="39">
+        <v>9</v>
+      </c>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
+      <c r="AQ6" s="43">
+        <v>10</v>
+      </c>
+      <c r="AR6" s="43"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="43"/>
+      <c r="AU6" s="43"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="43"/>
+      <c r="AX6" s="43"/>
+      <c r="AY6" s="43"/>
+      <c r="AZ6" s="43"/>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="str">
-        <v>M7</v>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
+      <c r="V7">
+        <v>20</v>
+      </c>
+      <c r="AA7">
+        <v>25</v>
+      </c>
+      <c r="AF7">
+        <v>30</v>
+      </c>
+      <c r="AK7">
+        <v>35</v>
+      </c>
+      <c r="AP7">
+        <v>40</v>
+      </c>
+      <c r="AU7">
+        <v>45</v>
+      </c>
+      <c r="AZ7">
+        <v>50</v>
+      </c>
+      <c r="BE7">
+        <v>55</v>
+      </c>
+      <c r="BJ7">
+        <v>60</v>
+      </c>
+      <c r="BO7">
+        <v>65</v>
+      </c>
+      <c r="BT7">
+        <v>70</v>
+      </c>
+      <c r="BY7">
+        <v>75</v>
+      </c>
+      <c r="CD7">
+        <v>80</v>
+      </c>
+      <c r="CI7">
+        <v>85</v>
+      </c>
+      <c r="CN7">
+        <v>90</v>
+      </c>
+      <c r="CS7">
+        <v>95</v>
+      </c>
+      <c r="CX7">
+        <v>100</v>
+      </c>
+      <c r="DC7">
+        <v>105</v>
+      </c>
+      <c r="DH7">
+        <v>110</v>
+      </c>
+      <c r="DM7">
+        <v>115</v>
+      </c>
+      <c r="DR7">
+        <v>120</v>
+      </c>
+      <c r="DW7">
+        <v>125</v>
+      </c>
+      <c r="EB7">
+        <v>130</v>
+      </c>
+      <c r="EG7">
+        <v>135</v>
+      </c>
+      <c r="EL7">
+        <v>140</v>
+      </c>
+      <c r="EQ7">
+        <v>145</v>
+      </c>
+      <c r="EV7">
+        <v>150</v>
+      </c>
+      <c r="FA7">
+        <v>155</v>
+      </c>
+      <c r="FF7">
+        <v>160</v>
+      </c>
+      <c r="FK7">
+        <v>165</v>
+      </c>
+      <c r="FP7">
+        <v>170</v>
+      </c>
+      <c r="FU7">
+        <v>175</v>
+      </c>
+      <c r="FZ7">
+        <v>180</v>
+      </c>
+      <c r="GE7">
+        <v>185</v>
+      </c>
+      <c r="GJ7">
+        <v>190</v>
+      </c>
+      <c r="GO7">
+        <v>195</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="str">
-        <v>M8</v>
+      <c r="A8" s="2" t="str">
+        <v>Job 0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="str">
-        <v>M9</v>
+      <c r="A9" s="3" t="str">
+        <v>Job 1</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="Q10">
-        <v>15</v>
-      </c>
-      <c r="V10">
-        <v>20</v>
-      </c>
-      <c r="AA10">
-        <v>25</v>
-      </c>
-      <c r="AF10">
-        <v>30</v>
-      </c>
-      <c r="AK10">
-        <v>35</v>
-      </c>
-      <c r="AP10">
-        <v>40</v>
-      </c>
-      <c r="AU10">
-        <v>45</v>
-      </c>
-      <c r="AZ10">
-        <v>50</v>
-      </c>
-      <c r="BE10">
-        <v>55</v>
-      </c>
-      <c r="BJ10">
-        <v>60</v>
-      </c>
-      <c r="BO10">
-        <v>65</v>
-      </c>
-      <c r="BT10">
-        <v>70</v>
-      </c>
-      <c r="BY10">
-        <v>75</v>
-      </c>
-      <c r="CD10">
-        <v>80</v>
-      </c>
-      <c r="CI10">
-        <v>85</v>
-      </c>
-      <c r="CN10">
-        <v>90</v>
-      </c>
-      <c r="CS10">
-        <v>95</v>
-      </c>
-      <c r="CX10">
-        <v>100</v>
-      </c>
-      <c r="DC10">
-        <v>105</v>
-      </c>
-      <c r="DH10">
-        <v>110</v>
-      </c>
-      <c r="DM10">
-        <v>115</v>
-      </c>
-      <c r="DR10">
-        <v>120</v>
-      </c>
-      <c r="DW10">
-        <v>125</v>
-      </c>
-      <c r="EB10">
-        <v>130</v>
-      </c>
-      <c r="EG10">
-        <v>135</v>
-      </c>
-      <c r="EL10">
-        <v>140</v>
-      </c>
-      <c r="EQ10">
-        <v>145</v>
-      </c>
-      <c r="EV10">
-        <v>150</v>
-      </c>
-      <c r="FA10">
-        <v>155</v>
-      </c>
-      <c r="FF10">
-        <v>160</v>
-      </c>
-      <c r="FK10">
-        <v>165</v>
-      </c>
-      <c r="FP10">
-        <v>170</v>
-      </c>
-      <c r="FU10">
-        <v>175</v>
-      </c>
-      <c r="FZ10">
-        <v>180</v>
-      </c>
-      <c r="GE10">
-        <v>185</v>
-      </c>
-      <c r="GJ10">
-        <v>190</v>
-      </c>
-      <c r="GO10">
-        <v>195</v>
+      <c r="A10" s="4" t="str">
+        <v>Job 2</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="str">
-        <v>Job 0</v>
+      <c r="A11" s="5" t="str">
+        <v>Job 3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="str">
-        <v>Job 1</v>
+      <c r="A12" s="6" t="str">
+        <v>Job 4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="str">
-        <v>Job 2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="str">
-        <v>Job 3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="6" t="str">
-        <v>Job 4</v>
+      <c r="A13" s="7" t="str">
+        <v>Job 5</v>
       </c>
     </row>
   </sheetData>
